--- a/jyx2/Assets/Mods/JYX2/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/战斗.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\jynew-20230510\jyx2\Assets\Mods\JYX2\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FB77AB-43B6-4380-B0EC-9DDDB68572DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B90AE3F-6177-4B5F-80C5-0D7F83B84629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="1870" windowWidth="19140" windowHeight="13090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17790" yWindow="2580" windowWidth="19380" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="247">
   <si>
     <t>编号</t>
   </si>
@@ -37,400 +37,6 @@
     <t>音乐</t>
   </si>
   <si>
-    <t>明教分舵</t>
-  </si>
-  <si>
-    <t>光明左使</t>
-  </si>
-  <si>
-    <t>徐降莫大</t>
-  </si>
-  <si>
-    <t>徐降左</t>
-  </si>
-  <si>
-    <t>令降莫大</t>
-  </si>
-  <si>
-    <t>令降左</t>
-  </si>
-  <si>
-    <t>青城四秀</t>
-  </si>
-  <si>
-    <t>笑傲江湖</t>
-  </si>
-  <si>
-    <t>凌霄城外</t>
-  </si>
-  <si>
-    <t>蜘蛛洞一</t>
-  </si>
-  <si>
-    <t>蜘蛛洞二</t>
-  </si>
-  <si>
-    <t>蜘蛛洞三</t>
-  </si>
-  <si>
-    <t>蜘蛛洞四</t>
-  </si>
-  <si>
-    <t>蜘蛛洞五</t>
-  </si>
-  <si>
-    <t>救神鵰</t>
-  </si>
-  <si>
-    <t>少林寺外</t>
-  </si>
-  <si>
-    <t>救阿紫</t>
-  </si>
-  <si>
-    <t>十大善人</t>
-  </si>
-  <si>
-    <t>斗胡斐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中阎基计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀阎基</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>救苗人凤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡苗对决</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯王宝藏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成昆奸计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光明顶前</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>决战六派</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弒杀成昆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>救王难姑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光明圣火</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会七伤拳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闹崆峒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>救庸医</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闹昆仑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>夺倚天剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>峨嵋围攻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三丰指导</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯见性峰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗定闲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗泰山</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗天门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯衡山</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗莫大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯嵩山</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐降天门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐降定闲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>令降天门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>令降定闲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再斗嵩山</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再斗定闲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再斗天门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再斗莫大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀费彬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗丹青生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗秃笔翁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗黑白子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗黄钟公</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗四友</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗林平之</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗余沧海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平之复仇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗平一指</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀田伯光</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方不败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>葵花宝典</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任与东方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗白万剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战雪山派</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战老顽童</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀一灯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战欧阳克</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁掌帮外</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战裘千仞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再战铁掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯重阳宫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战丘处机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再战全真</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战郭靖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战桃花岛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解剑岩前</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战玄慈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>破打狗阵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单挑乔峰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丐帮四老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>慕容奸计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀丁春秋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战游坦之</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯鳄鱼潭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗岳老三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大轮寺外</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大轮寺内</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>抢连城诀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯神龙岛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗洪教主</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯五毒教</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>找韦小宝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗蓝凤凰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闯金轮寺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗金轮王</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战袁承志</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大会斗唐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>再斗金花</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十大恶人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>无用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -567,6 +173,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>23,202,203,209,210,206,207,208</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>20,171,172,179,174,175,176,177</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -619,10 +229,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>121,122,123,124,125</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>121,122,123,124,125,126,127,128,129</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>281,282,289,284</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>67,281,282,289,284,285,286</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>67,281,282,289,284,285,286,287,288,289,290</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>291,292,293,294,295,296</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -711,6 +337,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>78,78,121,122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>队友</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -927,14 +557,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>千年人参</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>莽牯朱蛤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>251,252,253,254</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -963,35 +585,326 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>23,201,202,203,209,210,206,207,208</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>281,282,283,284</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>67,281,282,283,284,285,286</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>67,281,282,283,284,285,286,287,288,289,290</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>69</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>호비와의 전투</t>
+  </si>
+  <si>
+    <t>염기의 계략</t>
+  </si>
+  <si>
+    <t>염기 처단</t>
+  </si>
+  <si>
+    <t>묘인봉 구출</t>
+  </si>
+  <si>
+    <t>호묘대결</t>
+  </si>
+  <si>
+    <t>층왕산동 대설괴</t>
+  </si>
+  <si>
+    <t>명교분타</t>
+  </si>
+  <si>
+    <t>광명좌사</t>
+  </si>
+  <si>
+    <t>성곤의 계략</t>
+  </si>
+  <si>
+    <t>광명정 앞</t>
+  </si>
+  <si>
+    <t>육대문파와 결전</t>
+  </si>
+  <si>
+    <t>성곤과 결착</t>
+  </si>
+  <si>
+    <t>왕난고 구출</t>
+  </si>
+  <si>
+    <t>광명성화</t>
+  </si>
+  <si>
+    <t>칠상권과 합을 겨루다</t>
+  </si>
+  <si>
+    <t>공동파에서 소란을 피우다</t>
+  </si>
+  <si>
+    <t>돌팔이 의사</t>
+  </si>
+  <si>
+    <t>곤륜을 놀리다</t>
+  </si>
+  <si>
+    <t>의천검을 빼앗다</t>
+  </si>
+  <si>
+    <t>아미파의 포위</t>
+  </si>
+  <si>
+    <t>장삼봉의 가르침</t>
+  </si>
+  <si>
+    <t>항산의 봉우리</t>
+  </si>
+  <si>
+    <t>정한과의 전투</t>
+  </si>
+  <si>
+    <t>태산파 전투</t>
+  </si>
+  <si>
+    <t>천문과의 전투</t>
+  </si>
+  <si>
+    <t>형산에 오르다</t>
+  </si>
+  <si>
+    <t>막대와의 전투</t>
+  </si>
+  <si>
+    <t>숭산에 오르다</t>
+  </si>
+  <si>
+    <t>천문은 칼을 거두고</t>
+  </si>
+  <si>
+    <t>정한은 칼을 거두고</t>
+  </si>
+  <si>
+    <t>막대는 칼을 거두고</t>
+  </si>
+  <si>
+    <t>좌냉선은 칼을 거두고</t>
+  </si>
+  <si>
+    <t>영호충과 천문</t>
+  </si>
+  <si>
+    <t>영호충과 정한</t>
+  </si>
+  <si>
+    <t>영호충과 막대</t>
+  </si>
+  <si>
+    <t>영호충과 좌냉선</t>
+  </si>
+  <si>
+    <t>숭산과의 재전투</t>
+  </si>
+  <si>
+    <t>정한과의 재전투</t>
+  </si>
+  <si>
+    <t>천문과의 재전투</t>
+  </si>
+  <si>
+    <t>막대와의 재전투</t>
+  </si>
+  <si>
+    <t>자객들</t>
+  </si>
+  <si>
+    <t>단청생과의 전투</t>
+  </si>
+  <si>
+    <t>독필옹과의 전투</t>
+  </si>
+  <si>
+    <t>흑백자와의 전투</t>
+  </si>
+  <si>
+    <t>황종공과의 전투</t>
+  </si>
+  <si>
+    <t>매장사우와의 전투</t>
+  </si>
+  <si>
+    <t>임평지와의 전투</t>
+  </si>
+  <si>
+    <t>청성사수</t>
+  </si>
+  <si>
+    <t>여창해와의 전투</t>
+  </si>
+  <si>
+    <t>임평지의 복수</t>
+  </si>
+  <si>
+    <t>평일지와의 전투</t>
+  </si>
+  <si>
+    <t>전백광 처단</t>
+  </si>
+  <si>
+    <t>동방불패</t>
+  </si>
+  <si>
+    <t>규화보전 쟁탈</t>
+  </si>
+  <si>
+    <t>소오강호</t>
+  </si>
+  <si>
+    <t>임아행의 합류</t>
+  </si>
+  <si>
+    <t>능소성 밖</t>
+  </si>
+  <si>
+    <t>백만검과의 전투</t>
+  </si>
+  <si>
+    <t>설산파와의 전투</t>
+  </si>
+  <si>
+    <t>거미동굴1</t>
+  </si>
+  <si>
+    <t>거미동굴2</t>
+  </si>
+  <si>
+    <t>거미동굴3</t>
+  </si>
+  <si>
+    <t>거미동굴4</t>
+  </si>
+  <si>
+    <t>거미동굴5</t>
+  </si>
+  <si>
+    <t>신조 구출</t>
+  </si>
+  <si>
+    <t>노완동과 놀아주기</t>
+  </si>
+  <si>
+    <t>일등대사 척살</t>
+  </si>
+  <si>
+    <t>구양극과의 전투</t>
+  </si>
+  <si>
+    <t>철장방 입구</t>
+  </si>
+  <si>
+    <t>구천인과의 전투</t>
+  </si>
+  <si>
+    <t>철장방과 재전투</t>
+  </si>
+  <si>
+    <t>중양궁 방문</t>
+  </si>
+  <si>
+    <t>구처기와의 전투</t>
+  </si>
+  <si>
+    <t>전진교와의 재전투</t>
+  </si>
+  <si>
+    <t>곽정에 도전하다</t>
+  </si>
+  <si>
+    <t>도화도 전투</t>
+  </si>
+  <si>
+    <t>망고주합</t>
+  </si>
+  <si>
+    <t>해검암 마찰</t>
+  </si>
+  <si>
+    <t>소림사 근교</t>
+  </si>
+  <si>
+    <t>소림방주와의 전투</t>
+  </si>
+  <si>
+    <t>타구진에 도전하다</t>
+  </si>
+  <si>
+    <t>교봉과의 맞대결</t>
+  </si>
+  <si>
+    <t>개방의 네 장로</t>
+  </si>
+  <si>
+    <t>모용복의 간계</t>
+  </si>
+  <si>
+    <t>정춘추를 처단하다</t>
+  </si>
+  <si>
+    <t>아자를 구해주다</t>
+  </si>
+  <si>
+    <t>유탄지와의 전투</t>
+  </si>
+  <si>
+    <t>악어연못</t>
+  </si>
+  <si>
+    <t>악로삼과의 전투</t>
+  </si>
+  <si>
+    <t>대륜사 외곽</t>
+  </si>
+  <si>
+    <t>대륜사 내부</t>
+  </si>
+  <si>
+    <t>연성결을 노리다</t>
+  </si>
+  <si>
+    <t>신룡도를 방문하다</t>
+  </si>
+  <si>
+    <t>홍교주와의 전투</t>
+  </si>
+  <si>
+    <t>오독교를 방문하다</t>
+  </si>
+  <si>
+    <t>위소보를 찾아 헤메다</t>
+  </si>
+  <si>
+    <t>남봉황과의 전투</t>
+  </si>
+  <si>
+    <t>금륜사를 방문하다</t>
+  </si>
+  <si>
+    <t>금륜법왕과의 전투</t>
+  </si>
+  <si>
+    <t>원승지와의 전투</t>
+  </si>
+  <si>
+    <t>화산논검</t>
+  </si>
+  <si>
+    <t>금화파파와의 재전투</t>
+  </si>
+  <si>
+    <t>십대악인</t>
+  </si>
+  <si>
+    <t>십대선인</t>
+  </si>
+  <si>
+    <t>노완동과 숨바꼭질</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1046,7 +959,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1327,25 +1240,25 @@
   <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="3" max="3" width="24.6328125" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="91" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1362,76 +1275,76 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>150</v>
@@ -1449,15 +1362,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -1475,15 +1388,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1491,8 +1404,8 @@
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>246</v>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -1501,15 +1414,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -1524,18 +1437,18 @@
         <v>-1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -1553,15 +1466,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="D10">
         <v>500</v>
@@ -1576,18 +1489,18 @@
         <v>-1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="D11">
         <v>1000</v>
@@ -1602,18 +1515,18 @@
         <v>-1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="D12">
         <v>50</v>
@@ -1631,15 +1544,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="D13">
         <v>300</v>
@@ -1654,18 +1567,18 @@
         <v>-1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="D14">
         <v>500</v>
@@ -1680,18 +1593,18 @@
         <v>-1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="D15">
         <v>400</v>
@@ -1709,15 +1622,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="D16">
         <v>800</v>
@@ -1732,18 +1645,18 @@
         <v>-1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="D17">
         <v>2300</v>
@@ -1758,18 +1671,18 @@
         <v>-1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="D18">
         <v>2000</v>
@@ -1784,18 +1697,18 @@
         <v>-1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="D19">
         <v>400</v>
@@ -1813,15 +1726,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="D20">
         <v>2000</v>
@@ -1836,18 +1749,18 @@
         <v>-1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="D21">
         <v>400</v>
@@ -1862,18 +1775,18 @@
         <v>-1</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="C22" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -1888,18 +1801,18 @@
         <v>-1</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="D23">
         <v>400</v>
@@ -1914,18 +1827,18 @@
         <v>-1</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="D24">
         <v>400</v>
@@ -1940,18 +1853,18 @@
         <v>-1</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="D25">
         <v>800</v>
@@ -1969,15 +1882,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="D26">
         <v>300</v>
@@ -1992,18 +1905,18 @@
         <v>-1</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="D27">
         <v>3000</v>
@@ -2021,15 +1934,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="D28">
         <v>200</v>
@@ -2044,18 +1957,18 @@
         <v>-1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D29">
         <v>500</v>
@@ -2070,18 +1983,18 @@
         <v>-1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="D30">
         <v>200</v>
@@ -2096,18 +2009,18 @@
         <v>-1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="D31">
         <v>500</v>
@@ -2122,18 +2035,18 @@
         <v>-1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="D32">
         <v>200</v>
@@ -2148,18 +2061,18 @@
         <v>-1</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="C33" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="D33">
         <v>500</v>
@@ -2174,18 +2087,18 @@
         <v>-1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="D34">
         <v>200</v>
@@ -2200,18 +2113,18 @@
         <v>-1</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="D35">
         <v>500</v>
@@ -2229,15 +2142,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D36">
         <v>500</v>
@@ -2255,15 +2168,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D37">
         <v>500</v>
@@ -2281,15 +2194,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D38">
         <v>800</v>
@@ -2307,15 +2220,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="C39" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D39">
         <v>500</v>
@@ -2333,15 +2246,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D40">
         <v>500</v>
@@ -2359,15 +2272,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="D41">
         <v>500</v>
@@ -2385,15 +2298,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D42">
         <v>800</v>
@@ -2411,15 +2324,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="C43" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="D43">
         <v>400</v>
@@ -2434,18 +2347,18 @@
         <v>-1</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D44">
         <v>200</v>
@@ -2460,18 +2373,18 @@
         <v>-1</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="C45" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="D45">
         <v>200</v>
@@ -2486,18 +2399,18 @@
         <v>-1</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="C46" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="D46">
         <v>200</v>
@@ -2512,18 +2425,18 @@
         <v>-1</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="C47" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="D47">
         <v>100</v>
@@ -2538,18 +2451,18 @@
         <v>-1</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="C48" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="D48">
         <v>300</v>
@@ -2567,15 +2480,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="C49" t="s">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="D49">
         <v>400</v>
@@ -2593,15 +2506,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="C50" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="D50">
         <v>500</v>
@@ -2619,15 +2532,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="C51" t="s">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="D51">
         <v>600</v>
@@ -2645,15 +2558,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>187</v>
       </c>
       <c r="C52" t="s">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="D52">
         <v>1200</v>
@@ -2668,18 +2581,18 @@
         <v>-1</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="C53" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="D53">
         <v>50</v>
@@ -2697,15 +2610,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="C54" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="D54">
         <v>200</v>
@@ -2720,18 +2633,18 @@
         <v>-1</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="C55" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="D55">
         <v>500</v>
@@ -2746,18 +2659,18 @@
         <v>-1</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="D56">
         <v>500</v>
@@ -2772,18 +2685,18 @@
         <v>36</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="C57" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="D57">
         <v>50</v>
@@ -2801,15 +2714,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="C58" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="D58">
         <v>450</v>
@@ -2827,15 +2740,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="C59" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="D59">
         <v>5000</v>
@@ -2850,18 +2763,18 @@
         <v>-1</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="C60" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D60">
         <v>2000</v>
@@ -2876,18 +2789,18 @@
         <v>-1</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="C61" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D61">
         <v>2500</v>
@@ -2902,18 +2815,18 @@
         <v>-1</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c r="C62" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D62">
         <v>5000</v>
@@ -2922,24 +2835,24 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="G62">
         <v>-1</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="C63" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="D63">
         <v>100</v>
@@ -2954,18 +2867,18 @@
         <v>-1</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>199</v>
       </c>
       <c r="C64" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="D64">
         <v>200</v>
@@ -2983,15 +2896,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="C65" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="D65">
         <v>300</v>
@@ -3006,18 +2919,18 @@
         <v>-1</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="C66" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="D66">
         <v>280</v>
@@ -3032,18 +2945,18 @@
         <v>-1</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="C67" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="D67">
         <v>280</v>
@@ -3058,18 +2971,18 @@
         <v>-1</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="C68" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="D68">
         <v>630</v>
@@ -3084,18 +2997,18 @@
         <v>-1</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="C69" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="D69">
         <v>280</v>
@@ -3110,18 +3023,18 @@
         <v>-1</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="C70" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="D70">
         <v>280</v>
@@ -3136,18 +3049,18 @@
         <v>-1</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
+        <v>124</v>
       </c>
       <c r="D71">
         <v>950</v>
@@ -3165,15 +3078,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="D72">
         <v>1500</v>
@@ -3191,15 +3104,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="D73">
         <v>1500</v>
@@ -3217,15 +3130,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="C74" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="D74">
         <v>300</v>
@@ -3243,15 +3156,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c r="D75">
         <v>300</v>
@@ -3266,18 +3179,18 @@
         <v>-1</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="C76" t="s">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c r="D76">
         <v>1600</v>
@@ -3292,18 +3205,18 @@
         <v>-1</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c r="D77">
         <v>900</v>
@@ -3318,18 +3231,18 @@
         <v>-1</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="C78" t="s">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c r="D78">
         <v>330</v>
@@ -3344,18 +3257,18 @@
         <v>-1</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="C79" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="D79">
         <v>1650</v>
@@ -3370,18 +3283,18 @@
         <v>-1</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="C80" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="D80">
         <v>850</v>
@@ -3396,18 +3309,18 @@
         <v>-1</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="C81" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="D81">
         <v>1500</v>
@@ -3425,15 +3338,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="C82" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="D82">
         <v>2300</v>
@@ -3448,18 +3361,18 @@
         <v>-1</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>78</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="D83">
         <v>600</v>
@@ -3477,15 +3390,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="C84" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="D84">
         <v>400</v>
@@ -3500,18 +3413,18 @@
         <v>-1</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="D85">
         <v>600</v>
@@ -3526,18 +3439,18 @@
         <v>-1</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="C86" t="s">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="D86">
         <v>1500</v>
@@ -3552,18 +3465,18 @@
         <v>-1</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="C87" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="D87">
         <v>600</v>
@@ -3578,18 +3491,18 @@
         <v>-1</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>223</v>
       </c>
       <c r="C88" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="D88">
         <v>1800</v>
@@ -3607,15 +3520,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>84</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="C89" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="D89">
         <v>1000</v>
@@ -3630,18 +3543,18 @@
         <v>-1</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="C90" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="D90">
         <v>500</v>
@@ -3659,15 +3572,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>86</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>109</v>
       </c>
       <c r="D91">
         <v>1300</v>
@@ -3682,18 +3595,18 @@
         <v>-1</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>87</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="C92" t="s">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="D92">
         <v>200</v>
@@ -3708,18 +3621,18 @@
         <v>-1</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>88</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>228</v>
       </c>
       <c r="C93" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="D93">
         <v>700</v>
@@ -3737,15 +3650,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>89</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>229</v>
       </c>
       <c r="C94" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D94">
         <v>900</v>
@@ -3760,18 +3673,18 @@
         <v>-1</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>230</v>
       </c>
       <c r="C95" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="D95">
         <v>2400</v>
@@ -3786,18 +3699,18 @@
         <v>-1</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>231</v>
       </c>
       <c r="C96" t="s">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="D96">
         <v>300</v>
@@ -3812,18 +3725,18 @@
         <v>-1</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c r="C97" t="s">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="D97">
         <v>500</v>
@@ -3838,18 +3751,18 @@
         <v>-1</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="C98" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="D98">
         <v>1500</v>
@@ -3864,18 +3777,18 @@
         <v>-1</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="D99">
         <v>550</v>
@@ -3890,18 +3803,18 @@
         <v>-1</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="C100" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="D100">
         <v>1000</v>
@@ -3916,18 +3829,18 @@
         <v>-1</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="C101" t="s">
-        <v>199</v>
+        <v>102</v>
       </c>
       <c r="D101">
         <v>230</v>
@@ -3942,18 +3855,18 @@
         <v>-1</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>97</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="C102" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="D102">
         <v>350</v>
@@ -3968,18 +3881,18 @@
         <v>-1</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="C103" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="D103">
         <v>850</v>
@@ -3994,18 +3907,18 @@
         <v>-1</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="C104" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="D104">
         <v>450</v>
@@ -4020,18 +3933,18 @@
         <v>-1</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>100</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>240</v>
       </c>
       <c r="C105" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="D105">
         <v>1250</v>
@@ -4046,18 +3959,18 @@
         <v>-1</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>101</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="C106" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="D106">
         <v>600</v>
@@ -4075,15 +3988,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C107" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D107">
         <v>500</v>
@@ -4101,15 +4014,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C108" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D108">
         <v>600</v>
@@ -4127,15 +4040,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C109" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="D109">
         <v>700</v>
@@ -4153,15 +4066,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>105</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C110" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="D110">
         <v>800</v>
@@ -4179,15 +4092,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>106</v>
       </c>
       <c r="B111" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C111" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D111">
         <v>900</v>
@@ -4205,15 +4118,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C112" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D112">
         <v>1000</v>
@@ -4231,15 +4144,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>108</v>
       </c>
       <c r="B113" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C113" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D113">
         <v>1100</v>
@@ -4257,15 +4170,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>109</v>
       </c>
       <c r="B114" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C114" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="D114">
         <v>1200</v>
@@ -4283,15 +4196,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>110</v>
       </c>
       <c r="B115" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C115" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D115">
         <v>1300</v>
@@ -4309,15 +4222,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>111</v>
       </c>
       <c r="B116" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C116" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D116">
         <v>1400</v>
@@ -4335,15 +4248,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>112</v>
       </c>
       <c r="B117" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C117" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="D117">
         <v>1500</v>
@@ -4361,15 +4274,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>113</v>
       </c>
       <c r="B118" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C118" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="D118">
         <v>1500</v>
@@ -4387,15 +4300,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>114</v>
       </c>
       <c r="B119" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C119" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D119">
         <v>1600</v>
@@ -4413,15 +4326,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>115</v>
       </c>
       <c r="B120" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C120" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D120">
         <v>1700</v>
@@ -4439,15 +4352,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>116</v>
       </c>
       <c r="B121" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C121" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="D121">
         <v>1800</v>
@@ -4465,15 +4378,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>117</v>
       </c>
       <c r="B122" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C122" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D122">
         <v>1900</v>
@@ -4491,15 +4404,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>118</v>
       </c>
       <c r="B123" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C123" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="D123">
         <v>2000</v>
@@ -4517,15 +4430,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>119</v>
       </c>
       <c r="B124" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C124" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D124">
         <v>2100</v>
@@ -4543,15 +4456,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>120</v>
       </c>
       <c r="B125" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C125" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="D125">
         <v>2200</v>
@@ -4569,15 +4482,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>121</v>
       </c>
       <c r="B126" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C126" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="D126">
         <v>2300</v>
@@ -4595,15 +4508,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>122</v>
       </c>
       <c r="B127" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C127" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="D127">
         <v>2400</v>
@@ -4621,15 +4534,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>123</v>
       </c>
       <c r="B128" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C128" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D128">
         <v>2500</v>
@@ -4647,15 +4560,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>124</v>
       </c>
       <c r="B129" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C129" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D129">
         <v>2600</v>
@@ -4673,15 +4586,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>125</v>
       </c>
       <c r="B130" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C130" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D130">
         <v>2700</v>
@@ -4699,15 +4612,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>126</v>
       </c>
       <c r="B131" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C131" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="D131">
         <v>2800</v>
@@ -4725,15 +4638,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C132" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="D132">
         <v>2900</v>
@@ -4751,15 +4664,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>128</v>
       </c>
       <c r="B133" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C133" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D133">
         <v>3000</v>
@@ -4777,15 +4690,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>129</v>
       </c>
       <c r="B134" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C134" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D134">
         <v>3100</v>
@@ -4803,15 +4716,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>130</v>
       </c>
       <c r="B135" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C135" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="D135">
         <v>3200</v>
@@ -4829,15 +4742,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>131</v>
       </c>
       <c r="B136" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="C136" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D136">
         <v>3300</v>
@@ -4855,15 +4768,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>132</v>
       </c>
       <c r="B137" t="s">
-        <v>106</v>
+        <v>243</v>
       </c>
       <c r="C137" t="s">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c r="D137">
         <v>400</v>
@@ -4881,15 +4794,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>133</v>
       </c>
       <c r="B138" t="s">
-        <v>107</v>
+        <v>244</v>
       </c>
       <c r="C138" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="D138">
         <v>5000</v>
@@ -4904,18 +4817,18 @@
         <v>0</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>134</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="C139" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="D139">
         <v>5000</v>
@@ -4930,18 +4843,18 @@
         <v>0</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>135</v>
       </c>
       <c r="B140" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="C140" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="D140">
         <v>1000</v>
@@ -4959,15 +4872,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>136</v>
       </c>
       <c r="B141" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -4985,15 +4898,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>137</v>
       </c>
       <c r="B142" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -5011,15 +4924,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>138</v>
       </c>
       <c r="B143" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -5037,15 +4950,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>139</v>
       </c>
       <c r="B144" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -5060,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>245</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
